--- a/OPRFileImport/(OPR)Import emp/(OPR)Import Employee Family.xlsx
+++ b/OPRFileImport/(OPR)Import emp/(OPR)Import Employee Family.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\narakorn.s\Desktop\(OPR)Import\Import_Emp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HR_OPR\OPR\OPRFileImport\(OPR)Import emp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB86CF0F-C3B1-4DE0-875D-FBE7E7B1A2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BA126C-A664-4590-BD26-02A28FA59E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>company_code</t>
   </si>
@@ -48,12 +48,6 @@
     <t>รหัสพนักงาน</t>
   </si>
   <si>
-    <t>รหัสบัตร</t>
-  </si>
-  <si>
-    <t>family_code</t>
-  </si>
-  <si>
     <t>family_type</t>
   </si>
   <si>
@@ -69,9 +63,6 @@
     <t>family_lname_en</t>
   </si>
   <si>
-    <t>family_birthdate</t>
-  </si>
-  <si>
     <t>ประเภท</t>
   </si>
   <si>
@@ -87,12 +78,6 @@
     <t>นามสกุล(อังกฤษ)</t>
   </si>
   <si>
-    <t>วันเกิด</t>
-  </si>
-  <si>
-    <t>333332221</t>
-  </si>
-  <si>
     <t>03</t>
   </si>
   <si>
@@ -100,13 +85,46 @@
   </si>
   <si>
     <t>Susu</t>
+  </si>
+  <si>
+    <t>OPR00001</t>
+  </si>
+  <si>
+    <t>สา</t>
+  </si>
+  <si>
+    <t>Sa</t>
+  </si>
+  <si>
+    <t>TD222</t>
+  </si>
+  <si>
+    <t>Tee</t>
+  </si>
+  <si>
+    <t>family_occupation</t>
+  </si>
+  <si>
+    <t>family_tel</t>
+  </si>
+  <si>
+    <t>family_address</t>
+  </si>
+  <si>
+    <t>อาชีพ</t>
+  </si>
+  <si>
+    <t>เบอร์โทรฯ</t>
+  </si>
+  <si>
+    <t>ที่อยู่</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,8 +145,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,6 +162,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -154,26 +184,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -183,8 +212,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF66"/>
       <color rgb="FFFFFFCC"/>
-      <color rgb="FFFFFF66"/>
       <color rgb="FFFFC7CE"/>
     </mruColors>
   </colors>
@@ -200,9 +229,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -240,9 +269,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,26 +304,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,26 +339,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -520,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -535,9 +530,9 @@
     <col min="5" max="5" width="17.109375" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
     <col min="11" max="14" width="14.6640625" customWidth="1"/>
     <col min="15" max="15" width="16.6640625" customWidth="1"/>
     <col min="16" max="16" width="16.21875" customWidth="1"/>
@@ -549,62 +544,106 @@
     <col min="22" max="22" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
+      <c r="H1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="6">
-        <v>40593</v>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -616,55 +655,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>15</v>
+      <c r="H1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -672,54 +715,51 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="I3" s="6">
-        <v>40593</v>
       </c>
     </row>
   </sheetData>
